--- a/data/trans_orig/P14C13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C13-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FC05671-7FD3-4D34-B190-26D9D5194B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37B8DEE4-AA0A-4DA7-A93C-64655A873FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B6E58710-EAE5-4615-A4C1-124E6537408F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DAD008A4-9BCE-4606-90E0-D2595C1FC146}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="177">
   <si>
     <t>Población según el tiempo de diagnóstico del dolor de espalda en 2015 (Tasa respuesta: 10,43%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>58,19%</t>
   </si>
   <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
   </si>
   <si>
     <t>73,71%</t>
   </si>
   <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
   </si>
   <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>27,56%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
   </si>
   <si>
     <t>20,88%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
   </si>
   <si>
     <t>23,48%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,19 +137,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>49,59%</t>
+    <t>55,02%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>28,37%</t>
+    <t>25,41%</t>
   </si>
   <si>
     <t>8,85%</t>
   </si>
   <si>
-    <t>26,13%</t>
+    <t>27,72%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,46 +161,46 @@
     <t>60,78%</t>
   </si>
   <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
   </si>
   <si>
     <t>74,26%</t>
   </si>
   <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
   </si>
   <si>
     <t>69,26%</t>
   </si>
   <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
   </si>
   <si>
     <t>33,07%</t>
   </si>
   <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
   </si>
   <si>
     <t>20,42%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
   </si>
   <si>
     <t>25,1%</t>
@@ -209,358 +209,361 @@
     <t>17,76%</t>
   </si>
   <si>
-    <t>33,13%</t>
+    <t>32,82%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
+    <t>8,74%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
   </si>
   <si>
     <t>69,16%</t>
   </si>
   <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
   </si>
   <si>
     <t>71,41%</t>
   </si>
   <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
   </si>
   <si>
     <t>21,68%</t>
   </si>
   <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
   </si>
   <si>
     <t>21,63%</t>
   </si>
   <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
   </si>
   <si>
     <t>9,16%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -975,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD8A39E-ADE6-4DF5-9C81-74199E2CE3DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3DE8B1-BF8C-4A0F-BFC5-5709D957638D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1926,10 +1929,10 @@
         <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>107</v>
@@ -1938,13 +1941,13 @@
         <v>122064</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>165</v>
@@ -1953,13 +1956,13 @@
         <v>182237</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,13 +1977,13 @@
         <v>15353</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>30</v>
@@ -1989,13 +1992,13 @@
         <v>34624</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -2004,13 +2007,13 @@
         <v>49977</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,10 +2028,10 @@
         <v>8678</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>143</v>
@@ -2132,10 +2135,10 @@
         <v>150</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>309</v>
@@ -2147,10 +2150,10 @@
         <v>68</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>489</v>
@@ -2159,13 +2162,13 @@
         <v>534416</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,13 +2183,13 @@
         <v>58640</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>95</v>
@@ -2195,13 +2198,13 @@
         <v>103384</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>148</v>
@@ -2210,13 +2213,13 @@
         <v>162025</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2234,13 @@
         <v>24768</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>25</v>
@@ -2246,13 +2249,13 @@
         <v>27197</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>48</v>
@@ -2261,13 +2264,13 @@
         <v>51965</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,7 +2326,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C13-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C13-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37B8DEE4-AA0A-4DA7-A93C-64655A873FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9400F4A3-3E85-4AC4-B5C1-7EA347921DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DAD008A4-9BCE-4606-90E0-D2595C1FC146}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3879126-1B1A-4066-AA06-BF27DF7923B8}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="177">
-  <si>
-    <t>Población según el tiempo de diagnóstico del dolor de espalda en 2015 (Tasa respuesta: 10,43%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="178">
+  <si>
+    <t>Población según el tiempo de diagnóstico del dolor de espalda en 2016 (Tasa respuesta: 10,43%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -74,28 +74,28 @@
     <t>58,19%</t>
   </si>
   <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
   </si>
   <si>
     <t>73,71%</t>
   </si>
   <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
   </si>
   <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>27,56%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
   </si>
   <si>
     <t>20,88%</t>
   </si>
   <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
   </si>
   <si>
     <t>23,48%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,433 +137,436 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>55,02%</t>
+    <t>53,77%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>25,41%</t>
+    <t>28,49%</t>
   </si>
   <si>
     <t>8,85%</t>
   </si>
   <si>
-    <t>27,72%</t>
+    <t>28,28%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>60,78%</t>
   </si>
   <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
   </si>
   <si>
     <t>74,26%</t>
   </si>
   <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
   </si>
   <si>
     <t>69,26%</t>
   </si>
   <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
   </si>
   <si>
     <t>33,07%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
   </si>
   <si>
     <t>20,42%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
   </si>
   <si>
     <t>25,1%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
   </si>
   <si>
     <t>14,74%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
+    <t>25,62%</t>
   </si>
   <si>
     <t>10,31%</t>
   </si>
   <si>
-    <t>18,65%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
   </si>
   <si>
     <t>69,16%</t>
   </si>
   <si>
-    <t>63,4%</t>
+    <t>62,66%</t>
   </si>
   <si>
     <t>74,7%</t>
   </si>
   <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
   </si>
   <si>
     <t>71,41%</t>
   </si>
   <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
   </si>
   <si>
     <t>21,68%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
   </si>
   <si>
     <t>21,63%</t>
   </si>
   <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
   </si>
   <si>
     <t>9,16%</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -978,7 +981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3DE8B1-BF8C-4A0F-BFC5-5709D957638D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47CA289-0293-45C5-965D-FEB38ECAA1AF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2031,10 +2034,10 @@
         <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -2043,13 +2046,13 @@
         <v>7451</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -2058,13 +2061,13 @@
         <v>16129</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2132,13 +2135,13 @@
         <v>187033</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>309</v>
@@ -2150,10 +2153,10 @@
         <v>68</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>489</v>
@@ -2162,13 +2165,13 @@
         <v>534416</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,13 +2186,13 @@
         <v>58640</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>95</v>
@@ -2198,13 +2201,13 @@
         <v>103384</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>148</v>
@@ -2213,13 +2216,13 @@
         <v>162025</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,13 +2237,13 @@
         <v>24768</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>25</v>
@@ -2249,13 +2252,13 @@
         <v>27197</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>48</v>
@@ -2264,13 +2267,13 @@
         <v>51965</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,7 +2329,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
